--- a/data_2023/time_bins/EarlyMidLate_epochs.xlsx
+++ b/data_2023/time_bins/EarlyMidLate_epochs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\time_bins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6D7452F-626A-4720-A98A-EE4E73343EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A398B4E-A29E-4608-89DE-FC52B6D22BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{990BBA97-64C9-4F25-A3C3-4F2FA79AF8FA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{990BBA97-64C9-4F25-A3C3-4F2FA79AF8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Early Paleocene</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Middle Paleocene</t>
+  </si>
+  <si>
+    <t>Holocene</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,13 +147,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFFD93-9FC7-44B3-A7CB-7ED1DAB5AD3C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,178 +508,189 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="3">
         <v>1.17E-2</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="3">
         <v>0.129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
         <v>0.129</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="3">
         <v>0.77400000000000002</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>2.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
         <v>2.58</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="3">
         <v>3.6</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>5.3330000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
         <v>5.3330000000000002</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>11.63</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="3">
         <v>11.63</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="3">
         <v>15.97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="3">
         <v>15.97</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="3">
         <v>23.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="3">
         <v>23.03</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="3">
         <v>27.82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="3">
         <v>27.82</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="3">
         <v>33.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="3">
         <v>33.9</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="3">
         <v>37.71</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="3">
         <v>37.71</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="3">
         <v>47.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="3">
         <v>47.8</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="3">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="3">
         <v>56</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="3">
         <v>59.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="3">
         <v>59.2</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="3">
         <v>61.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="3">
         <v>61.6</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="3">
         <v>66</v>
       </c>
     </row>

--- a/data_2023/time_bins/EarlyMidLate_epochs.xlsx
+++ b/data_2023/time_bins/EarlyMidLate_epochs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\time_bins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A398B4E-A29E-4608-89DE-FC52B6D22BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F7261-BFC3-4B6F-9A34-D51DE81BFB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{990BBA97-64C9-4F25-A3C3-4F2FA79AF8FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Early Paleocene</t>
   </si>
@@ -95,7 +95,13 @@
     <t>Middle Paleocene</t>
   </si>
   <si>
-    <t>Holocene</t>
+    <t>Late Holocene</t>
+  </si>
+  <si>
+    <t>Middle Holocene</t>
+  </si>
+  <si>
+    <t>Early Holocene</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFFD93-9FC7-44B3-A7CB-7ED1DAB5AD3C}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,182 +521,204 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.17E-2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.129</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.77400000000000002</v>
+        <v>1.17E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>2.58</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>2.58</v>
+        <v>0.129</v>
       </c>
       <c r="C6" s="3">
-        <v>3.6</v>
+        <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>3.6</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="C7" s="3">
-        <v>5.3330000000000002</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>5.3330000000000002</v>
+        <v>2.58</v>
       </c>
       <c r="C8" s="3">
-        <v>11.63</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>11.63</v>
+        <v>3.6</v>
       </c>
       <c r="C9" s="3">
-        <v>15.97</v>
+        <v>5.3330000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>15.97</v>
+        <v>5.3330000000000002</v>
       </c>
       <c r="C10" s="3">
-        <v>23.03</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>23.03</v>
+        <v>11.63</v>
       </c>
       <c r="C11" s="3">
-        <v>27.82</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>27.82</v>
+        <v>15.97</v>
       </c>
       <c r="C12" s="3">
-        <v>33.9</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>33.9</v>
+        <v>23.03</v>
       </c>
       <c r="C13" s="3">
-        <v>37.71</v>
+        <v>27.82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>37.71</v>
+        <v>27.82</v>
       </c>
       <c r="C14" s="3">
-        <v>47.8</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>47.8</v>
+        <v>33.9</v>
       </c>
       <c r="C15" s="3">
-        <v>56</v>
+        <v>37.71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>56</v>
+        <v>37.71</v>
       </c>
       <c r="C16" s="3">
-        <v>59.2</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>59.2</v>
+        <v>47.8</v>
       </c>
       <c r="C17" s="3">
-        <v>61.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>59.2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B20" s="3">
         <v>61.6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C20" s="3">
         <v>66</v>
       </c>
     </row>

--- a/data_2023/time_bins/EarlyMidLate_epochs.xlsx
+++ b/data_2023/time_bins/EarlyMidLate_epochs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship_ISEM\Neotropical_Mammals\REPO\Neotropical_mammals\data_2023\time_bins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F7261-BFC3-4B6F-9A34-D51DE81BFB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D84322-A04C-43D5-91A6-686C9B60B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{990BBA97-64C9-4F25-A3C3-4F2FA79AF8FA}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{990BBA97-64C9-4F25-A3C3-4F2FA79AF8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFFD93-9FC7-44B3-A7CB-7ED1DAB5AD3C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_2023/time_bins/EarlyMidLate_epochs.xlsx
+++ b/data_2023/time_bins/EarlyMidLate_epochs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">interval_name</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
+    <t xml:space="preserve">abbr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Late Holocene</t>
   </si>
   <si>
@@ -73,12 +76,18 @@
     <t xml:space="preserve">#FEE6AA</t>
   </si>
   <si>
+    <t xml:space="preserve">Late</t>
+  </si>
+  <si>
     <t xml:space="preserve">Early Oligocene</t>
   </si>
   <si>
     <t xml:space="preserve">#FED99A</t>
   </si>
   <si>
+    <t xml:space="preserve">Early</t>
+  </si>
+  <si>
     <t xml:space="preserve">Late Eocene</t>
   </si>
   <si>
@@ -89,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">#FCB482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid</t>
   </si>
   <si>
     <t xml:space="preserve">Early Eocene</t>
@@ -304,13 +316,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
   </cols>
@@ -328,10 +340,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0</v>
@@ -342,7 +357,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0042</v>
@@ -353,7 +368,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>0.0082</v>
@@ -364,7 +379,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0.0117</v>
@@ -375,7 +390,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0.129</v>
@@ -386,7 +401,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.774</v>
@@ -397,7 +412,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>2.58</v>
@@ -408,7 +423,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>3.6</v>
@@ -419,7 +434,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>5.333</v>
@@ -430,7 +445,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>11.63</v>
@@ -441,7 +456,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>15.97</v>
@@ -452,7 +467,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>23.03</v>
@@ -461,12 +476,15 @@
         <v>27.82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>27.82</v>
@@ -475,12 +493,15 @@
         <v>33.9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>33.9</v>
@@ -489,12 +510,15 @@
         <v>37.71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>37.71</v>
@@ -503,12 +527,15 @@
         <v>47.8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>47.8</v>
@@ -517,12 +544,15 @@
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>56</v>
@@ -533,7 +563,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>59.2</v>
@@ -544,7 +574,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>61.6</v>

--- a/data_2023/time_bins/EarlyMidLate_epochs.xlsx
+++ b/data_2023/time_bins/EarlyMidLate_epochs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">interval_name</t>
   </si>
@@ -67,9 +67,18 @@
     <t xml:space="preserve">Middle Miocene</t>
   </si>
   <si>
+    <t xml:space="preserve">#FFFF4D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Early Miocene</t>
   </si>
   <si>
+    <t xml:space="preserve">#FFFF33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early</t>
+  </si>
+  <si>
     <t xml:space="preserve">Late Oligocene</t>
   </si>
   <si>
@@ -85,9 +94,6 @@
     <t xml:space="preserve">#FED99A</t>
   </si>
   <si>
-    <t xml:space="preserve">Early</t>
-  </si>
-  <si>
     <t xml:space="preserve">Late Eocene</t>
   </si>
   <si>
@@ -112,7 +118,13 @@
     <t xml:space="preserve">Late Paleocene</t>
   </si>
   <si>
+    <t xml:space="preserve">#FDBF6F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Middle Paleocene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#FEBF65</t>
   </si>
   <si>
     <t xml:space="preserve">Early Paleocene</t>
@@ -319,7 +331,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,10 +465,13 @@
       <c r="C11" s="3" t="n">
         <v>15.97</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>15.97</v>
@@ -464,10 +479,16 @@
       <c r="C12" s="3" t="n">
         <v>23.03</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>23.03</v>
@@ -476,15 +497,15 @@
         <v>27.82</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>27.82</v>
@@ -493,15 +514,15 @@
         <v>33.9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>33.9</v>
@@ -510,15 +531,15 @@
         <v>37.71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>37.71</v>
@@ -527,15 +548,15 @@
         <v>47.8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>47.8</v>
@@ -544,15 +565,15 @@
         <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>56</v>
@@ -560,10 +581,13 @@
       <c r="C18" s="3" t="n">
         <v>59.2</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>59.2</v>
@@ -571,10 +595,13 @@
       <c r="C19" s="3" t="n">
         <v>61.6</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>61.6</v>
